--- a/data/trans_bre/P1414-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1414-Estudios-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>4.979479717968259</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6.765638896730687</v>
+        <v>6.765638896730685</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>10.7908097696876</v>
@@ -627,7 +627,7 @@
         <v>37.98067713783153</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>7.805699960615238</v>
+        <v>7.805699960615236</v>
       </c>
     </row>
     <row r="5">
@@ -638,20 +638,20 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.528405767149679</v>
+        <v>2.437061093962489</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.684357372122407</v>
+        <v>3.62937940365111</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.195721485001415</v>
+        <v>5.090870992703738</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>2.873725651635414</v>
+        <v>2.842492024107825</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>2.056152592621289</v>
+        <v>2.191139743224674</v>
       </c>
     </row>
     <row r="6">
@@ -662,20 +662,20 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.816609428230352</v>
+        <v>4.755191409487196</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.530769900431185</v>
+        <v>6.643273486917018</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.502542518222509</v>
+        <v>8.490916706015954</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>38.53790087608363</v>
+        <v>41.0062062149767</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>23.03298526711571</v>
+        <v>26.11557401050698</v>
       </c>
     </row>
     <row r="7">
@@ -705,7 +705,7 @@
         <v>5.557935118624115</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>9.785821518277604</v>
+        <v>9.785821518277602</v>
       </c>
     </row>
     <row r="8">
@@ -716,22 +716,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.142029507253511</v>
+        <v>1.227115928322752</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.041279927222027</v>
+        <v>1.982466807164812</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.618396039686671</v>
+        <v>2.635974534515646</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>2.545641286632675</v>
+        <v>2.287478203142737</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>2.53105867619021</v>
+        <v>2.358125614307411</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>4.336397359422669</v>
+        <v>4.326574856232955</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.578201272735525</v>
+        <v>2.68078092423962</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.823203210452341</v>
+        <v>3.679172007340918</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.934037700415265</v>
+        <v>3.939134523369392</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>33.04098208208159</v>
+        <v>35.44529512268037</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>12.29644198173314</v>
+        <v>12.23385762534386</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>25.68563019879923</v>
+        <v>25.61197736731469</v>
       </c>
     </row>
     <row r="10">
@@ -789,7 +789,7 @@
         <v>2.287146406525699</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4.878405679070211</v>
+        <v>4.87840567907021</v>
       </c>
     </row>
     <row r="11">
@@ -800,20 +800,20 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3289339255671695</v>
+        <v>0.2245186500043402</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.1888672376037407</v>
+        <v>-0.09299343118108294</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7416200897486277</v>
+        <v>0.8117239945416368</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="n">
-        <v>-0.738767652814372</v>
+        <v>-0.7635082196500796</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5314630570807531</v>
+        <v>0.5547110222904907</v>
       </c>
     </row>
     <row r="12">
@@ -824,18 +824,18 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.837229738426868</v>
+        <v>2.947034002987444</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.432368326970132</v>
+        <v>2.428689787926849</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.992653597466276</v>
+        <v>2.811372996061493</v>
       </c>
       <c r="F12" s="6" t="inlineStr"/>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>23.82247963142776</v>
+        <v>25.27887987327183</v>
       </c>
     </row>
     <row r="13">
@@ -876,22 +876,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.859824005506281</v>
+        <v>1.810817434661602</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.497613632141903</v>
+        <v>2.45105338621852</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.175125853314779</v>
+        <v>3.166140278271107</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>4.689159453843676</v>
+        <v>4.543419323116892</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3.95366912831316</v>
+        <v>3.820077554123821</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4.797951606726258</v>
+        <v>4.531643868426286</v>
       </c>
     </row>
     <row r="15">
@@ -902,22 +902,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.028787483882919</v>
+        <v>2.991191104821017</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.885146483379663</v>
+        <v>3.796664626860515</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.297083661591379</v>
+        <v>4.300015105758535</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>29.19264096141427</v>
+        <v>26.24905453524685</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>15.66399127193917</v>
+        <v>13.7492572698935</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>16.14038730586007</v>
+        <v>16.01009953476715</v>
       </c>
     </row>
     <row r="16">
